--- a/regions/5/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/5/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -532,7 +532,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" customHeight="1">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -552,7 +552,7 @@
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -568,7 +568,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="7"/>
       <c r="B3" s="10">
         <v>2006</v>
@@ -615,8 +615,14 @@
       <c r="P3" s="11">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75">
+      <c r="Q3" s="11">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -665,8 +671,14 @@
       <c r="P4" s="12">
         <v>43.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75">
+      <c r="Q4" s="12">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="R4" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -715,8 +727,14 @@
       <c r="P5" s="12">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75">
+      <c r="Q5" s="12">
+        <v>67.5</v>
+      </c>
+      <c r="R5" s="12">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -765,8 +783,14 @@
       <c r="P6" s="13">
         <v>1461</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75">
+      <c r="Q6" s="13">
+        <v>1653</v>
+      </c>
+      <c r="R6" s="13">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -815,8 +839,14 @@
       <c r="P7" s="13">
         <v>1397</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75">
+      <c r="Q7" s="13">
+        <v>1533</v>
+      </c>
+      <c r="R7" s="13">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -865,8 +895,14 @@
       <c r="P8" s="12">
         <v>713.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75">
+      <c r="Q8" s="12">
+        <v>871</v>
+      </c>
+      <c r="R8" s="12">
+        <v>966.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -915,8 +951,14 @@
       <c r="P9" s="12">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75">
+      <c r="Q9" s="12">
+        <v>28.2</v>
+      </c>
+      <c r="R9" s="12">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -965,8 +1007,14 @@
       <c r="P10" s="12">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
+      <c r="Q10" s="12">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="R10" s="12">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1015,8 +1063,14 @@
       <c r="P11" s="12">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75">
+      <c r="Q11" s="12">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="R11" s="12">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -1065,8 +1119,14 @@
       <c r="P12" s="12">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75">
+      <c r="Q12" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R12" s="12">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -1115,8 +1175,14 @@
       <c r="P13" s="12">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="30">
+      <c r="Q13" s="12">
+        <v>30.2</v>
+      </c>
+      <c r="R13" s="12">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -1165,8 +1231,14 @@
       <c r="P14" s="15">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="5"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1183,7 +1255,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1">
+    <row r="16" spans="1:18" s="1" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>

--- a/regions/5/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
+++ b/regions/5/sastumroebi da restornebi/sastumroebi da restornebi.xlsx
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -532,7 +532,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.5" customHeight="1">
+    <row r="1" spans="1:19" ht="22.5" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -552,7 +552,7 @@
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -568,7 +568,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="7"/>
       <c r="B3" s="10">
         <v>2006</v>
@@ -621,8 +621,11 @@
       <c r="R3" s="11">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75">
+      <c r="S3" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -677,8 +680,11 @@
       <c r="R4" s="12">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75">
+      <c r="S4" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -733,8 +739,11 @@
       <c r="R5" s="12">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75">
+      <c r="S5" s="12">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -789,8 +798,11 @@
       <c r="R6" s="13">
         <v>1667</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75">
+      <c r="S6" s="13">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -845,8 +857,11 @@
       <c r="R7" s="13">
         <v>1651</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75">
+      <c r="S7" s="13">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -901,8 +916,11 @@
       <c r="R8" s="12">
         <v>966.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75">
+      <c r="S8" s="12">
+        <v>1093.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -957,8 +975,11 @@
       <c r="R9" s="12">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75">
+      <c r="S9" s="12">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1013,8 +1034,11 @@
       <c r="R10" s="12">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75">
+      <c r="S10" s="12">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1069,8 +1093,11 @@
       <c r="R11" s="12">
         <v>39.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75">
+      <c r="S11" s="12">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -1125,8 +1152,11 @@
       <c r="R12" s="12">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75">
+      <c r="S12" s="12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -1181,8 +1211,11 @@
       <c r="R13" s="12">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="30">
+      <c r="S13" s="12">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="30">
       <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
@@ -1237,8 +1270,11 @@
       <c r="R14" s="15">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="5"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1255,7 +1291,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1">
+    <row r="16" spans="1:19" s="1" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
